--- a/batch/upload/test.xlsx
+++ b/batch/upload/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quid\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quid\Desktop\github\Spring_Batch\batch\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C6D6E8-F44D-4825-BB7B-551BFF5FBBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D838086-A30C-4B21-82D0-58728F07C25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5CB9D319-6BD5-4584-884D-AE1661970B3D}"/>
   </bookViews>
@@ -36,16 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Batch Copmlete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Version</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,6 +64,12 @@
   <si>
     <t>COUPON_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>2023-08-03</t>
   </si>
 </sst>
 </file>
@@ -455,7 +457,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -472,37 +474,38 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/batch/upload/test.xlsx
+++ b/batch/upload/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quid\Desktop\github\Spring_Batch\batch\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D838086-A30C-4B21-82D0-58728F07C25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945FF01C-951A-47EF-A503-570E2CB11F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{5CB9D319-6BD5-4584-884D-AE1661970B3D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Batch Copmlete</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>2023-08-03</t>
+  </si>
+  <si>
+    <t>TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -127,7 +136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -138,6 +147,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEED2082-E3D7-4687-9909-58F07511B935}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -479,10 +491,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -501,6 +513,91 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44927</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44927</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44927</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44927</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44927</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
